--- a/pkg/benchmark/testdata/experiment.2024-04-07-1/experiment-2024-04-07-1.xlsx
+++ b/pkg/benchmark/testdata/experiment.2024-04-07-1/experiment-2024-04-07-1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C648804E-B72B-44BD-8205-6FF996DA19FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8150BF8A-D914-451D-BBA1-A671C2DA4982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="4" activeTab="1" xr2:uid="{356622AA-B474-4E96-8600-3283248EC917}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{356622AA-B474-4E96-8600-3283248EC917}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="6" r:id="rId1"/>
@@ -176,7 +176,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Controller Memory vs Resources</a:t>
+              <a:t>Memory vs Resources</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5849,51 +5849,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>data!$L$2:$L$1364</c:f>
@@ -7716,6 +7671,3728 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B9EC-421A-B1FF-7BD77960AC5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cainjector_memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$L$2:$L$10000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9999"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1091</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1102</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1131</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1151</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1191</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1211</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1251</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1271</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1291</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1311</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1331</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1341</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1361</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1371</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1381</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1402</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1411</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1432</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1452</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1461</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1471</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1481</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1491</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1532</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1571</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1582</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1592</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1602</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1612</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1622</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1632</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1652</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1662</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1671</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1682</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1692</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1702</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1712</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1722</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1732</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1752</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1762</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1772</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1782</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1802</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1812</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1822</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1832</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1842</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1852</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1872</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1882</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1892</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1902</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1922</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2091</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2111</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2131</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2151</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2161</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2171</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2181</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2193</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2202</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2211</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2221</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2231</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2241</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2251</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2261</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2271</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2281</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2291</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2301</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2311</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2321</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2331</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2341</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2351</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2361</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2372</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2382</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2391</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2411</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2421</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2431</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2451</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2461</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2471</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2481</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2491</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2511</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2531</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2541</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2551</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2571</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2581</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2591</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2611</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2631</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2651</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2661</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2671</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2691</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2711</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2721</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2731</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2741</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2751</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2761</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2771</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2781</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2791</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2811</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2831</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2841</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2851</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2861</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2870</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2890</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2910</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2920</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2940</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2960</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2970</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2980</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$B$2:$B$10000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9999"/>
+                <c:pt idx="0">
+                  <c:v>23007232000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23007232000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31768576000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31768576000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36229120000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38567936000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38567936000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38682624000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38682624000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38682624000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43085824000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43106304000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43106304000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43106304000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43208704000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43208704000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43212800000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43225088000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43225088000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43270144000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43278336000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43278336000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43298816000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44658688000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44658688000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45121536000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45150208000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45150208000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45477888000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49405952000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>49405952000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49471488000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>49504256000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>49504256000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52068352000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>54325248000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>54325248000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>54329344000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>54362112000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54362112000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>54362112000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>56528896000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>56528896000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>56606720000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>56627200000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>56627200000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>56639488000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>56664064000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>56664064000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>60973056000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>60981248000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60981248000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>60989440000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60997632000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>60997632000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>61026304000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>62054400000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62054400000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>62005248000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62029824000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62029824000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62033920000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62033920000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>62033920000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>62042112000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>62332928000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>62332928000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>66408448000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>66506752000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>66506752000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>66527232000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>66527232000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>66527232000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>66527232000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>66531328000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>66531328000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>66842624000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>69464064000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>69464064000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>69591040000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>69730304000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>69730304000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>69742592000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>69746688000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>69746688000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>69746688000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>69750784000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>69750784000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>69812224000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>69877760000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>69877760000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>72024064000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>72024064000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>72024064000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>72036352000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>72089600000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>72089600000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>72093696000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>72101888000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>72101888000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>72101888000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>72347648000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>72347648000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>72364032000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>72445952000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>72445952000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>72445952000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>72929280000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>72929280000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>73003008000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>73121792000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>73121792000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>73408512000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>74432512000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>74432512000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>74625024000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>74616832000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>74616832000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>74629120000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>74629120000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>74629120000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>74616832000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>74616832000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>74616832000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>74661888000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>75083776000</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>75083776000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>75395072000</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>75788288000</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>75788288000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>75755520000</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>75866112000</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>75866112000</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>75845632000</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>75845632000</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>75845632000</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>75825152000</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>75849728000</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>75849728000</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>75849728000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>78348288000</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>78348288000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>78348288000</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>79491072000</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>79491072000</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>79491072000</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>79499264000</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>79499264000</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>79896576000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>80097280000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>80097280000</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>80850944000</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>80855040000</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>80855040000</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>80941056000</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>81137664000</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>81137664000</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>81137664000</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>81129472000</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>81129472000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>80842752000</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>81395712000</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>81395712000</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>83611648000</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>83619840000</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>83619840000</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>83619840000</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>83632128000</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>83632128000</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>83640320000</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>83685376000</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>83685376000</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>84414464000</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>84553728000</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>84553728000</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>84680704000</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>84684800000</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>84684800000</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>84688896000</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>84934656000</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>84934656000</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>84938752000</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>84865024000</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>84865024000</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>84865024000</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>84992000000</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>84992000000</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>87486464000</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>87724032000</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>87724032000</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>87822336000</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>87887872000</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>87887872000</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>87961600000</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>87969792000</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>87969792000</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>87994368000</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>88264704000</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>88264704000</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>88264704000</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>88379392000</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>88379392000</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>90763264000</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>90763264000</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>90763264000</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>90591232000</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>90382336000</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>90382336000</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>90382336000</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>90423296000</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>90423296000</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>90746880000</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>90615808000</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>90615808000</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>90624000000</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>90624000000</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>90624000000</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>90624000000</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>90636288000</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>90636288000</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>90644480000</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>91557888000</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>91557888000</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>91914240000</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>91918336000</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>91918336000</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>91930624000</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>91922432000</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>91922432000</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>91922432000</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>91930624000</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>91930624000</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>92426240000</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>92426240000</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>92426240000</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>97873920000</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>98222080000</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>98222080000</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>98234368000</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>98242560000</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>98242560000</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>98234368000</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>98238464000</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>98238464000</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>98234368000</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>98136064000</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>98136064000</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>95522816000</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>95526912000</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>95526912000</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>95522816000</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>95522816000</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>95522816000</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>95522816000</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>95522816000</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>95522816000</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>95522816000</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>95531008000</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>95531008000</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>92311552000</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>92311552000</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>92311552000</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>92307456000</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>92311552000</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>92311552000</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>92307456000</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>92307456000</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>92307456000</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>92307456000</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>92311552000</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>92311552000</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>92823552000</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>98992128000</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>98992128000</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>107286528000</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>109670400000</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>109670400000</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>109694976000</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>100192256000</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>100192256000</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>100204544000</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>94867456000</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>94867456000</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>94871552000</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>91308032000</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>91308032000</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>88129536000</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>85999616000</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>85999616000</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>85999616000</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>86003712000</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>86003712000</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>85999616000</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>85737472000</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>85737472000</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>85778432000</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>85852160000</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>85852160000</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>91107328000</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>112771072000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E566-4530-B50A-784C324B8032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>webhook_memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$L$2:$L$10000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9999"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1091</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1102</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1131</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1151</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1191</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1211</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1251</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1271</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1291</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1311</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1331</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1341</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1361</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1371</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1381</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1402</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1411</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1421</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1432</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1452</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1461</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1471</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1481</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1491</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1532</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1571</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1582</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1592</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1602</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1612</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1622</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1632</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1652</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1662</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1671</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1682</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1692</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1702</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1712</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1722</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1732</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1752</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1762</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1772</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1782</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1802</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1812</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1822</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1832</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1842</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1852</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1872</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1882</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1892</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1902</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1922</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2091</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2101</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2111</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2131</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2151</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2161</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2171</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2181</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2193</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2202</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2211</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2221</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2231</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2241</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2251</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2261</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2271</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2281</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2291</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2301</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2311</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2321</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2331</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2341</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2351</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2361</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2372</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2382</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2391</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2411</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2421</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2431</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2451</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2461</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2471</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2481</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2491</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2511</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2531</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2541</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2551</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2571</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2581</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2591</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2611</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2631</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2651</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2661</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2671</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2691</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2711</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2721</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2731</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2741</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2751</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2761</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2771</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2781</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2791</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2811</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2831</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2841</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2851</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2861</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2870</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2890</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2910</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2920</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2940</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2960</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2970</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2980</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$K$2:$K$10000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9999"/>
+                <c:pt idx="0">
+                  <c:v>11231232000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11227136000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16183296000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16183296000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16363520000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16670720000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16670720000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16945152000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17084416000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17084416000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17047552000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17006592000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17006592000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17166336000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17141760000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17141760000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17326080000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17018880000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17018880000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17334272000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17481728000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17481728000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17752064000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17772544000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17772544000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17854464000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18272256000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18272256000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18014208000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18014208000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18014208000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17948672000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17969152000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17969152000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17969152000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17883136000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17883136000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17719296000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17985536000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17985536000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17883136000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17694720000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17694720000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18264064000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18128896000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18128896000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18071552000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18063360000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18063360000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17829888000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18079744000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18079744000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18149376000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18149376000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18149376000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18567168000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17965056000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17965056000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18354176000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>18464768000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18464768000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18341888000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18780160000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18780160000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>18997248000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>18292736000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>18292736000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18190336000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>18255872000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18255872000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18214912000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18219008000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18219008000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18219008000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18251776000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18251776000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>18751488000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18251776000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>18251776000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>18268160000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>18636800000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>18636800000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>18182144000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>18182144000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>18182144000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>18264064000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>18436096000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>18436096000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>18616320000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>18546688000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18546688000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>19161088000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>19390464000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>19390464000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>19161088000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19329024000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>19329024000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19292160000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19009536000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>19009536000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>19238912000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>19324928000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>19324928000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>19599360000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>19587072000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>19587072000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>19587072000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>19963904000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>19963904000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>19963904000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>20205568000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>20205568000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>20471808000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>20381696000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>20381696000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>20602880000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>20750336000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>20750336000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>20520960000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>20602880000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>20602880000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>21258240000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>21258240000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>21258240000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>20914176000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>20971520000</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>20971520000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>21340160000</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>20992000000</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>20992000000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>21106688000</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>21106688000</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>21106688000</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>21229568000</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>21159936000</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>21159936000</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>22028288000</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>22097920000</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>22097920000</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>22208512000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>22245376000</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>22245376000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>22245376000</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>22151168000</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>22151168000</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>22335488000</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>22503424000</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>22503424000</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>22196224000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>22446080000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>22446080000</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>22544384000</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>22913024000</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>22913024000</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>23056384000</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>23056384000</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>23056384000</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>23162880000</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>23162880000</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>23162880000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>23937024000</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>23781376000</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>23781376000</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>23990272000</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>23662592000</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>23662592000</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>24006656000</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>24166400000</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>24166400000</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>24276992000</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>24346624000</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>24346624000</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>24461312000</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>25571328000</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>25571328000</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>25722880000</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>25747456000</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>25747456000</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>25952256000</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>25948160000</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>25948160000</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>25948160000</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>25976832000</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>25976832000</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>26071040000</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>25980928000</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>25980928000</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>26140672000</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>26247168000</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>26247168000</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>26341376000</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>26427392000</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>26427392000</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>26030080000</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>26030080000</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>26030080000</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>26058752000</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>26226688000</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>26226688000</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>26820608000</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>26161152000</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>26161152000</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>27385856000</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>27385856000</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>27385856000</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>26898432000</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>26955776000</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>26955776000</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>26460160000</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>26939392000</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>26939392000</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>27152384000</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>27025408000</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>27025408000</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>26787840000</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>26787840000</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>26787840000</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>28581888000</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>29097984000</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>29097984000</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>28463104000</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>28573696000</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>28573696000</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>28377088000</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>28422144000</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>28422144000</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>28577792000</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>28659712000</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>28659712000</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>28770304000</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>28811264000</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>28811264000</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>28651520000</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>28819456000</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>28819456000</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>28729344000</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>29261824000</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>29261824000</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>28815360000</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>28721152000</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>28721152000</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>28721152000</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>28766208000</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>28766208000</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>28766208000</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>28676096000</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>28676096000</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>28676096000</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>28676096000</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>28676096000</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>28680192000</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>28672000000</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>28672000000</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>28459008000</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>28463104000</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>28463104000</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>28459008000</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>28459008000</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>28459008000</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>28459008000</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>28459008000</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>28459008000</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>28459008000</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>28459008000</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>28459008000</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>28393472000</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>28393472000</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>28393472000</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>28393472000</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>28393472000</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>28393472000</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>31473664000</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>32186368000</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>32186368000</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>31854592000</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>32165888000</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>32165888000</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>32165888000</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>32493568000</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>32493568000</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>32747520000</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>31899648000</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>31899648000</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>32116736000</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>32276480000</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>32276480000</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>32641024000</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>32579584000</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>32579584000</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>32583680000</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>32579584000</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>32579584000</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>32583680000</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>32583680000</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>32583680000</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>32620544000</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>32616448000</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>32616448000</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>32616448000</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>32739328000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E566-4530-B50A-784C324B8032}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7734,6 +11411,7 @@
         <c:axId val="1393685455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7772,7 +11450,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Elapsed Seconds</a:t>
+                  <a:t>Elapsed Minutes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7842,8 +11520,11 @@
         <c:crossAx val="2116643807"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="600"/>
+        <c:majorUnit val="300"/>
         <c:minorUnit val="60"/>
+        <c:dispUnits>
+          <c:custUnit val="60"/>
+        </c:dispUnits>
       </c:valAx>
       <c:valAx>
         <c:axId val="2116643807"/>
@@ -8081,10 +11762,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8188,7 +11865,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Controller CPU vs Resources</a:t>
+              <a:t>CPU vs Resources</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -15746,6 +19423,7 @@
         <c:axId val="1393685455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -15784,7 +19462,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Elapsed Seconds</a:t>
+                  <a:t>Elapsed Minutes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -15854,8 +19532,11 @@
         <c:crossAx val="2116643807"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="600"/>
+        <c:majorUnit val="300"/>
         <c:minorUnit val="60"/>
+        <c:dispUnits>
+          <c:custUnit val="60"/>
+        </c:dispUnits>
       </c:valAx>
       <c:valAx>
         <c:axId val="2116643807"/>
@@ -15996,7 +19677,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>CPU (cores)</a:t>
+                  <a:t>CPU (millicores)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -27643,7 +31324,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{60DCB2C3-C96B-4433-ACCC-46E7CF410F82}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -27655,7 +31336,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4E4F86B4-8937-4B90-A4AB-C4A56E8BFD8C}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -27736,7 +31417,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657683" cy="6280305"/>
+    <xdr:ext cx="8663736" cy="6284310"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -28207,7 +31888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A1D639-63FE-47C4-BAEF-8C0C973B21D3}">
   <dimension ref="A1:L301"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H1" activeCellId="1" sqref="F1:F1048576 H1:H1048576"/>
     </sheetView>
   </sheetViews>
